--- a/biology/Botanique/Jardin_Yuyuan/Jardin_Yuyuan.xlsx
+++ b/biology/Botanique/Jardin_Yuyuan/Jardin_Yuyuan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Yu (Sinogramme simplifié 豫园; Sinogramme traditionnel 豫園; pinyin : yǔyuán, jardin de l'hésitation) est un jardin de deux hectares datant du XVIe siècle situé au centre de la Vieille Ville près de Chenghuangmiao à Shanghai, en Chine. Il est considéré comme l'un des jardins chinois les plus somptueux et de première qualité dans la région. Il est accessible à partir de la ligne 10 du métro de Shanghai.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a été construit en 1559 en tant que jardin privé par Pan Yunduan, qui passa près de 20 ans à l'aménager pour faire plaisir à son père Pan En, un officiel de haut rang durant la Dynastie Ming, pendant la retraite de son père. À travers les années, l'état du jardin commença à se dégrader jusqu'en 1760, date où il fut racheté par des marchands, puis souffrit d'importants dommages au cours du XIXe siècle. En 1842, pendant la Guerre de l'opium, l'armée britannique occupa le temple du dieu de la ville durant cinq jours. Pendant la Rébellion Taiping les jardins furent occupés par les troupes impériales, et furent encore endommagés par les Japonais en 1942. Ils ont été remis en l'état par le gouvernement de Shanghai entre 1956-1961, ont rouvert au public en 1961, et ont été déclarés monument national en 1982.
 Aujourd'hui, le jardin Yuyuan occupe une superficie de 2 hectares (5 acres), et est divisé en six espaces généraux aménagés dans le style Suzhou :
